--- a/public/2025 final biocoding.xlsx
+++ b/public/2025 final biocoding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Chimezie Igwegbe Nzoputam </t>
   </si>
   <si>
-    <t>Chioma Deborah Nzeduru æ</t>
+    <t>Chioma Deborah Nzeduru</t>
   </si>
   <si>
     <t xml:space="preserve">Christopher Ogheneruemu Ofuadarho </t>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/public/2025 final biocoding.xlsx
+++ b/public/2025 final biocoding.xlsx
@@ -32,10 +32,10 @@
     <t>AJUGWO GLORIA CHIDIEBERE</t>
   </si>
   <si>
-    <t xml:space="preserve">Alli-Yusuf, Monsurat Olasumbo </t>
-  </si>
-  <si>
-    <t>Benedicta Bosu</t>
+    <t xml:space="preserve">Alli-Yusuf Monsurat Olasumbo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedicta Bosu </t>
   </si>
   <si>
     <t xml:space="preserve">Blessing Opeyemi Afolabi </t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Chimezie Igwegbe Nzoputam </t>
   </si>
   <si>
-    <t>Chioma Deborah Nzeduru</t>
+    <t>Chioma Deborah Nzeduru æ</t>
   </si>
   <si>
     <t xml:space="preserve">Christopher Ogheneruemu Ofuadarho </t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Daniel Jesuwenu Ajose </t>
   </si>
   <si>
-    <t>DR Abdallah Issahaku</t>
+    <t>Abdallah Issahaku</t>
   </si>
   <si>
     <t>Abdullatif Ahmed Zainal</t>
@@ -1344,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/public/2025 final biocoding.xlsx
+++ b/public/2025 final biocoding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8205"/>
+    <workbookView windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>AJUGWO GLORIA CHIDIEBERE</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t xml:space="preserve">Wumbei Dramani </t>
+  </si>
+  <si>
+    <t>Musa Sani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eben Leonel Albano Maiopué </t>
+  </si>
+  <si>
+    <t>JOSEPH ALALE AWEEYA</t>
+  </si>
+  <si>
+    <t>Akinseye Olanrewaju Roland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwagboso Stephanie somtochukwu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christiana Onwona </t>
+  </si>
+  <si>
+    <t>Ashley E Anil</t>
+  </si>
+  <si>
+    <t>SERGIUS IHEANACHO-NWOKEJI</t>
+  </si>
+  <si>
+    <t>CHUNGA ERIC MBAH</t>
+  </si>
+  <si>
+    <t>Elizabeth Ovuru John</t>
+  </si>
+  <si>
+    <t>Daniel Nweke Igwe</t>
   </si>
 </sst>
 </file>
@@ -790,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +840,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1494,6 +1530,61 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:A28">
     <sortCondition ref="A1"/>

--- a/public/2025 final biocoding.xlsx
+++ b/public/2025 final biocoding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20475" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/public/2025 final biocoding.xlsx
+++ b/public/2025 final biocoding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="7770"/>
+    <workbookView windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>Musa Sani</t>
   </si>
   <si>
-    <t xml:space="preserve">Eben Leonel Albano Maiopué </t>
+    <t>Eben Leonel Albano Maiopué</t>
   </si>
   <si>
     <t>JOSEPH ALALE AWEEYA</t>
